--- a/4.Inference/one_sample_ttest.xlsx
+++ b/4.Inference/one_sample_ttest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\biostatistics_course_2022\4.Inference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0414D3-35CB-4572-95AF-4C49780A7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A6A961-BE21-4028-B1A5-36BC1359C2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D54A6193-5DCF-4DF3-B71E-3B33543BDC2E}"/>
   </bookViews>
@@ -65,7 +65,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
@@ -83,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,28 +101,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Ariall"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Ariall"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Ariall"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -147,20 +144,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,95 +480,96 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>4.33</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <f>COUNT(A2:A11)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>4.62</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <f>AVERAGE(A2:A11)</f>
         <v>4.4210000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>3.89</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f>_xlfn.STDEV.S(A2:A11)</f>
         <v>0.26697690287114106</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>4.1399999999999997</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>4.78</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <f>(D3-D5)/(D4/SQRT(D2))</f>
         <v>-0.9357361347242803</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4.6399999999999997</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f>_xlfn.T.DIST.2T(ABS(D6), D2-1)</f>
         <v>0.3738357366565439</v>
       </c>
@@ -583,37 +584,37 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>4.5199999999999996</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>4.55</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>4.4800000000000004</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>4.26</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
